--- a/published-data/fonds-solidarite/fds-2021-07-22/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-22/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -13923,13 +13923,13 @@
         <v>12</v>
       </c>
       <c r="C365">
-        <v>9120</v>
+        <v>9119</v>
       </c>
       <c r="D365">
         <v>2319</v>
       </c>
       <c r="E365">
-        <v>17997591</v>
+        <v>17997504</v>
       </c>
       <c r="F365" t="s">
         <v>15</v>
